--- a/data/positive_signals/Indirectly connected (A-X-B) - Furosemide - Bullous eruptions.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - Furosemide - Bullous eruptions.xlsx
@@ -173,33 +173,120 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>3763631</t>
+  </si>
+  <si>
+    <t>bullous eruption</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>73814932</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>53892327</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>58915526</t>
+  </si>
+  <si>
+    <t>74839345</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>98939135</t>
+  </si>
+  <si>
+    <t>51269444</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>66163822</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
     <t>3762211</t>
   </si>
   <si>
     <t>bulla</t>
   </si>
   <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>3763631</t>
-  </si>
-  <si>
-    <t>bullous eruption</t>
-  </si>
-  <si>
-    <t>123755320</t>
+    <t>57351046</t>
   </si>
   <si>
     <t>causes</t>
   </si>
   <si>
-    <t>203449045</t>
+    <t>137260534</t>
   </si>
   <si>
     <t>is parent of</t>
   </si>
   <si>
+    <t>4028517</t>
+  </si>
+  <si>
+    <t>kidney failure, chronic</t>
+  </si>
+  <si>
+    <t>16113862</t>
+  </si>
+  <si>
+    <t>51330779</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>57273052</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>5131040</t>
+  </si>
+  <si>
+    <t>pulmonary edema</t>
+  </si>
+  <si>
+    <t>54961510</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>57069532</t>
+  </si>
+  <si>
+    <t>16115543</t>
+  </si>
+  <si>
+    <t>55291627</t>
+  </si>
+  <si>
     <t>4027653</t>
   </si>
   <si>
@@ -209,214 +296,283 @@
     <t>Living Beings</t>
   </si>
   <si>
-    <t>117830686</t>
+    <t>67776952</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>51759313</t>
   </si>
   <si>
     <t>is administered to</t>
   </si>
   <si>
-    <t>134102290</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>125633784</t>
+    <t>59239313</t>
   </si>
   <si>
     <t>is not administered to</t>
   </si>
   <si>
-    <t>117477428</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>117459011</t>
+    <t>51284984</t>
+  </si>
+  <si>
+    <t>51266807</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
+    <t>5127262</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>16115213</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>113483617</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>57227534</t>
+  </si>
+  <si>
+    <t>111104659</t>
+  </si>
+  <si>
+    <t>61995650</t>
+  </si>
+  <si>
+    <t>54216638</t>
+  </si>
+  <si>
+    <t>209171</t>
+  </si>
+  <si>
+    <t>limb structure</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>58365683</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>59479264</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>66965721</t>
+  </si>
+  <si>
+    <t>56212225</t>
+  </si>
+  <si>
+    <t>69987932</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>58768258</t>
+  </si>
+  <si>
+    <t>57419795</t>
+  </si>
+  <si>
+    <t>99578394</t>
+  </si>
+  <si>
+    <t>4034949</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>78890834</t>
+  </si>
+  <si>
+    <t>127281809</t>
+  </si>
+  <si>
+    <t>2517682</t>
+  </si>
+  <si>
+    <t>boys</t>
+  </si>
+  <si>
+    <t>106359503</t>
+  </si>
+  <si>
+    <t>58830242</t>
+  </si>
+  <si>
+    <t>2518307</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>57701251</t>
+  </si>
+  <si>
+    <t>66442537</t>
+  </si>
+  <si>
+    <t>684679</t>
+  </si>
+  <si>
+    <t>infant, newborn</t>
+  </si>
+  <si>
+    <t>52114996</t>
+  </si>
+  <si>
+    <t>122805436</t>
+  </si>
+  <si>
+    <t>54883337</t>
+  </si>
+  <si>
+    <t>55517824</t>
+  </si>
+  <si>
+    <t>837528</t>
+  </si>
+  <si>
+    <t>captopril</t>
+  </si>
+  <si>
+    <t>56214891</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>56214805</t>
+  </si>
+  <si>
+    <t>62151079</t>
+  </si>
+  <si>
+    <t>52282160</t>
+  </si>
+  <si>
+    <t>66039709</t>
+  </si>
+  <si>
+    <t>55290855</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>75879421</t>
+  </si>
+  <si>
+    <t>75554810</t>
+  </si>
+  <si>
+    <t>65299844</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>74231788</t>
+  </si>
+  <si>
+    <t>758494</t>
+  </si>
+  <si>
+    <t>phenylbutazone</t>
+  </si>
+  <si>
+    <t>55445274</t>
+  </si>
+  <si>
+    <t>65107722</t>
+  </si>
+  <si>
+    <t>71413055</t>
+  </si>
+  <si>
+    <t>76789379</t>
+  </si>
+  <si>
+    <t>76789827</t>
+  </si>
+  <si>
+    <t>61382531</t>
+  </si>
+  <si>
     <t>650553</t>
   </si>
   <si>
     <t>infant</t>
   </si>
   <si>
-    <t>119731288</t>
-  </si>
-  <si>
-    <t>120614562</t>
-  </si>
-  <si>
-    <t>168545139</t>
-  </si>
-  <si>
-    <t>120978202</t>
-  </si>
-  <si>
-    <t>144464660</t>
-  </si>
-  <si>
-    <t>684679</t>
-  </si>
-  <si>
-    <t>infant, newborn</t>
-  </si>
-  <si>
-    <t>118357285</t>
-  </si>
-  <si>
-    <t>121238999</t>
-  </si>
-  <si>
-    <t>189019746</t>
-  </si>
-  <si>
-    <t>122056665</t>
-  </si>
-  <si>
-    <t>5127262</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>82339631</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>179706364</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>177297802</t>
-  </si>
-  <si>
-    <t>123670915</t>
-  </si>
-  <si>
-    <t>128392081</t>
-  </si>
-  <si>
-    <t>120547375</t>
-  </si>
-  <si>
-    <t>4028517</t>
-  </si>
-  <si>
-    <t>kidney failure, chronic</t>
-  </si>
-  <si>
-    <t>82338924</t>
-  </si>
-  <si>
-    <t>117529881</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>123657506</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>209171</t>
-  </si>
-  <si>
-    <t>limb structure</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>124760494</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>125832970</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>133421039</t>
-  </si>
-  <si>
-    <t>122637491</t>
-  </si>
-  <si>
-    <t>136332181</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>125160992</t>
-  </si>
-  <si>
-    <t>123826974</t>
-  </si>
-  <si>
-    <t>165773837</t>
-  </si>
-  <si>
-    <t>5131040</t>
-  </si>
-  <si>
-    <t>pulmonary edema</t>
-  </si>
-  <si>
-    <t>121346990</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>123441777</t>
-  </si>
-  <si>
-    <t>82339944</t>
-  </si>
-  <si>
-    <t>121833297</t>
-  </si>
-  <si>
-    <t>4034949</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>145240692</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>193498222</t>
+    <t>54627582</t>
+  </si>
+  <si>
+    <t>102423111</t>
+  </si>
+  <si>
+    <t>53427171</t>
+  </si>
+  <si>
+    <t>54293296</t>
+  </si>
+  <si>
+    <t>78122755</t>
+  </si>
+  <si>
+    <t>5698619</t>
+  </si>
+  <si>
+    <t>autoimmune diseases</t>
+  </si>
+  <si>
+    <t>91981662</t>
+  </si>
+  <si>
+    <t>84843954</t>
+  </si>
+  <si>
+    <t>5108168</t>
+  </si>
+  <si>
+    <t>penicillin g</t>
+  </si>
+  <si>
+    <t>57539550</t>
+  </si>
+  <si>
+    <t>75949843</t>
   </si>
   <si>
     <t>4033983</t>
@@ -425,217 +581,61 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>122311989</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>149260302</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>118846013</t>
-  </si>
-  <si>
-    <t>117896881</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>120680437</t>
+    <t>58550428</t>
+  </si>
+  <si>
+    <t>52574847</t>
+  </si>
+  <si>
+    <t>70582537</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>82886702</t>
+  </si>
+  <si>
+    <t>53850379</t>
+  </si>
+  <si>
+    <t>51265378</t>
+  </si>
+  <si>
+    <t>53873273</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>120196202</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>124957697</t>
-  </si>
-  <si>
-    <t>118282378</t>
-  </si>
-  <si>
-    <t>149943718</t>
-  </si>
-  <si>
-    <t>120219958</t>
-  </si>
-  <si>
-    <t>121900801</t>
-  </si>
-  <si>
-    <t>131564622</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>117458436</t>
-  </si>
-  <si>
-    <t>131412876</t>
-  </si>
-  <si>
-    <t>137060130</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>134233294</t>
-  </si>
-  <si>
-    <t>142812784</t>
-  </si>
-  <si>
-    <t>2517682</t>
-  </si>
-  <si>
-    <t>boys</t>
-  </si>
-  <si>
-    <t>172579207</t>
-  </si>
-  <si>
-    <t>125271467</t>
-  </si>
-  <si>
-    <t>837528</t>
-  </si>
-  <si>
-    <t>captopril</t>
-  </si>
-  <si>
-    <t>118636849</t>
-  </si>
-  <si>
-    <t>118522009</t>
-  </si>
-  <si>
-    <t>118636914</t>
-  </si>
-  <si>
-    <t>117647368</t>
-  </si>
-  <si>
-    <t>132435284</t>
-  </si>
-  <si>
-    <t>142219365</t>
-  </si>
-  <si>
-    <t>141889710</t>
-  </si>
-  <si>
-    <t>128595095</t>
-  </si>
-  <si>
-    <t>131752067</t>
-  </si>
-  <si>
-    <t>140613064</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>141171547</t>
-  </si>
-  <si>
-    <t>140196454</t>
-  </si>
-  <si>
-    <t>120199802</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>165138221</t>
-  </si>
-  <si>
-    <t>125335504</t>
-  </si>
-  <si>
-    <t>117461822</t>
-  </si>
-  <si>
-    <t>132508592</t>
-  </si>
-  <si>
-    <t>2518307</t>
-  </si>
-  <si>
-    <t>girls</t>
-  </si>
-  <si>
-    <t>124106837</t>
-  </si>
-  <si>
-    <t>132833551</t>
-  </si>
-  <si>
-    <t>5698619</t>
-  </si>
-  <si>
-    <t>autoimmune diseases</t>
-  </si>
-  <si>
-    <t>158160188</t>
-  </si>
-  <si>
-    <t>151224234</t>
-  </si>
-  <si>
-    <t>758494</t>
-  </si>
-  <si>
-    <t>phenylbutazone</t>
-  </si>
-  <si>
-    <t>140894824</t>
-  </si>
-  <si>
-    <t>131564423</t>
-  </si>
-  <si>
-    <t>137762497</t>
-  </si>
-  <si>
-    <t>121842583</t>
-  </si>
-  <si>
-    <t>140895200</t>
-  </si>
-  <si>
-    <t>127797772</t>
-  </si>
-  <si>
-    <t>5108168</t>
-  </si>
-  <si>
-    <t>penicillin g</t>
-  </si>
-  <si>
-    <t>123944913</t>
-  </si>
-  <si>
-    <t>142386444</t>
+    <t>54299983</t>
+  </si>
+  <si>
+    <t>67886896</t>
+  </si>
+  <si>
+    <t>55482541</t>
+  </si>
+  <si>
+    <t>67906084</t>
+  </si>
+  <si>
+    <t>55928242</t>
+  </si>
+  <si>
+    <t>65107874</t>
+  </si>
+  <si>
+    <t>83568137</t>
+  </si>
+  <si>
+    <t>51663553</t>
+  </si>
+  <si>
+    <t>52073981</t>
+  </si>
+  <si>
+    <t>76350720</t>
   </si>
 </sst>
 </file>
@@ -840,7 +840,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>165.0</v>
+        <v>665.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -867,24 +867,54 @@
         <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" t="s">
-        <v>61</v>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45.0</v>
+        <v>165.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -896,13 +926,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -911,42 +941,24 @@
         <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37.0</v>
+        <v>121.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -958,13 +970,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -973,42 +985,30 @@
         <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
         <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.0</v>
+        <v>117.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1020,13 +1020,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -1035,36 +1035,36 @@
         <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
         <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21.0</v>
+        <v>46.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1076,13 +1076,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1091,24 +1091,42 @@
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="O6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1120,13 +1138,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -1135,31 +1153,19 @@
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>99</v>
-      </c>
-      <c r="R7" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1176,13 +1182,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1191,25 +1197,31 @@
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" t="s">
         <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1238,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1241,19 +1253,19 @@
         <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1270,13 +1282,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1285,25 +1297,25 @@
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1320,13 +1332,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1335,25 +1347,25 @@
         <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -1370,13 +1382,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1385,31 +1397,19 @@
         <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="M12" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" t="s">
-        <v>128</v>
-      </c>
-      <c r="P12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>129</v>
-      </c>
-      <c r="R12" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -1426,13 +1426,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1441,24 +1441,24 @@
         <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -1470,13 +1470,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -1485,114 +1485,24 @@
         <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" t="s">
-        <v>141</v>
-      </c>
-      <c r="P14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>142</v>
-      </c>
-      <c r="R14" t="s">
-        <v>143</v>
-      </c>
-      <c r="S14" t="s">
-        <v>144</v>
-      </c>
-      <c r="T14" t="s">
-        <v>145</v>
-      </c>
-      <c r="U14" t="s">
-        <v>146</v>
-      </c>
-      <c r="V14" t="s">
-        <v>147</v>
-      </c>
-      <c r="W14" t="s">
-        <v>148</v>
-      </c>
-      <c r="X14" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -1604,13 +1514,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -1619,24 +1529,36 @@
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>99</v>
+      </c>
+      <c r="O15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>148</v>
+      </c>
+      <c r="R15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -1648,10 +1570,10 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -1663,72 +1585,72 @@
         <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Q16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="R16" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="S16" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="T16" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="U16" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="V16" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Z16" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AA16" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="AB16" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AC16" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AD16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -1740,13 +1662,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -1755,54 +1677,48 @@
         <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="Q17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="R17" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="T17" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="U17" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="V17" t="s">
-        <v>133</v>
-      </c>
-      <c r="W17" t="s">
-        <v>187</v>
-      </c>
-      <c r="X17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -1814,13 +1730,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -1829,19 +1745,37 @@
         <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="N18" t="s">
-        <v>74</v>
+        <v>95</v>
+      </c>
+      <c r="O18" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>177</v>
+      </c>
+      <c r="R18" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" t="s">
+        <v>178</v>
+      </c>
+      <c r="T18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -1858,13 +1792,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -1873,19 +1807,19 @@
         <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M19" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -1902,10 +1836,10 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
@@ -1917,43 +1851,19 @@
         <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s">
-        <v>138</v>
-      </c>
-      <c r="O20" t="s">
-        <v>200</v>
-      </c>
-      <c r="P20" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>201</v>
-      </c>
-      <c r="R20" t="s">
-        <v>138</v>
-      </c>
-      <c r="S20" t="s">
-        <v>202</v>
-      </c>
-      <c r="T20" t="s">
-        <v>140</v>
-      </c>
-      <c r="U20" t="s">
-        <v>203</v>
-      </c>
-      <c r="V20" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -1970,10 +1880,10 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
@@ -1985,19 +1895,109 @@
         <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" t="s">
+        <v>190</v>
+      </c>
+      <c r="N21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>193</v>
+      </c>
+      <c r="R21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" t="s">
+        <v>195</v>
+      </c>
+      <c r="V21" t="s">
+        <v>108</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO21" t="s">
         <v>206</v>
       </c>
-      <c r="L21" t="s">
-        <v>138</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="AP21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>207</v>
       </c>
-      <c r="N21" t="s">
-        <v>59</v>
+      <c r="AR21" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
